--- a/data/lossofsale_sg_thrissur.xlsx
+++ b/data/lossofsale_sg_thrissur.xlsx
@@ -206,10 +206,10 @@
     <col min="3" max="3" width="17.55" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="17.55" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="20.25" customWidth="1"/>
     <col min="7" max="7" width="8.100000000000001" customWidth="1"/>
-    <col min="8" max="8" width="32.400000000000006" customWidth="1"/>
-    <col min="9" max="9" width="28.35" customWidth="1"/>
+    <col min="8" max="8" width="10.8" customWidth="1"/>
+    <col min="9" max="9" width="37.800000000000004" customWidth="1"/>
     <col min="10" max="10" width="16.200000000000003" customWidth="1"/>
     <col min="11" max="11" width="54" customWidth="1"/>
   </cols>
@@ -284,25 +284,25 @@
       </c>
       <c t="inlineStr" r="B3">
         <is>
-          <t xml:space="preserve">01-12-2025</t>
+          <t xml:space="preserve">16-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">ribin</t>
+          <t xml:space="preserve">Nithin</t>
         </is>
       </c>
       <c r="D3" s="65">
-        <v>6282856520</v>
+        <v>8943053925</v>
       </c>
       <c t="inlineStr" r="E3">
         <is>
-          <t xml:space="preserve">06-12-2025</t>
+          <t xml:space="preserve">03-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F3">
         <is>
-          <t xml:space="preserve">RASEEB E A</t>
+          <t xml:space="preserve">RAYAN K B</t>
         </is>
       </c>
       <c t="inlineStr" r="G3">
@@ -312,12 +312,12 @@
       </c>
       <c t="inlineStr" r="H3">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I3">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J3">
@@ -327,7 +327,7 @@
       </c>
       <c t="inlineStr" r="K3">
         <is>
-          <t xml:space="preserve">REQUIRED COLOUR NOT AVAILABLE IN THE STORE</t>
+          <t xml:space="preserve">will update with family</t>
         </is>
       </c>
     </row>
@@ -337,20 +337,20 @@
       </c>
       <c t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">02-12-2025</t>
+          <t xml:space="preserve">16-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C4">
         <is>
-          <t xml:space="preserve">praveen</t>
+          <t xml:space="preserve">adharv</t>
         </is>
       </c>
       <c r="D4" s="65">
-        <v>9074623872</v>
+        <v>7994499796</v>
       </c>
       <c t="inlineStr" r="E4">
         <is>
-          <t xml:space="preserve">08-12-2025</t>
+          <t xml:space="preserve">23-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F4">
@@ -365,12 +365,12 @@
       </c>
       <c t="inlineStr" r="H4">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I4">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
         </is>
       </c>
       <c t="inlineStr" r="J4">
@@ -380,7 +380,7 @@
       </c>
       <c t="inlineStr" r="K4">
         <is>
-          <t xml:space="preserve">CUSTOMER NEEDED SOME OF FRESH KURTHAS. OUR COLLECTIONS ARE FADED</t>
+          <t xml:space="preserve">will update tomorrow</t>
         </is>
       </c>
     </row>
@@ -390,25 +390,25 @@
       </c>
       <c t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">02-12-2025</t>
+          <t xml:space="preserve">16-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C5">
         <is>
-          <t xml:space="preserve">HARISON</t>
+          <t xml:space="preserve">joyal</t>
         </is>
       </c>
       <c r="D5" s="65">
-        <v>7994880574</v>
+        <v>9567564713</v>
       </c>
       <c t="inlineStr" r="E5">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">08-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F5">
         <is>
-          <t xml:space="preserve">RASEEB E A</t>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
         </is>
       </c>
       <c t="inlineStr" r="G5">
@@ -418,12 +418,12 @@
       </c>
       <c t="inlineStr" r="H5">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I5">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J5">
@@ -433,7 +433,7 @@
       </c>
       <c t="inlineStr" r="K5">
         <is>
-          <t xml:space="preserve">GROOM&amp; COUSINS LIKED OUR WHITE BENGALA, BUT THE MOTHER REJECTED THEY SPENTED LESS THAN 10 MINUTES IN STORE.</t>
+          <t xml:space="preserve">navi blue suit not available in store</t>
         </is>
       </c>
     </row>
@@ -443,25 +443,25 @@
       </c>
       <c t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">02-12-2025</t>
+          <t xml:space="preserve">16-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C6">
         <is>
-          <t xml:space="preserve">afnan</t>
+          <t xml:space="preserve">shibin</t>
         </is>
       </c>
       <c r="D6" s="65">
-        <v>7736409701</v>
+        <v>7907275586</v>
       </c>
       <c t="inlineStr" r="E6">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">16-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F6">
         <is>
-          <t xml:space="preserve">RAYAN K B</t>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
         </is>
       </c>
       <c t="inlineStr" r="G6">
@@ -486,7 +486,60 @@
       </c>
       <c t="inlineStr" r="K6">
         <is>
-          <t xml:space="preserve">CUSTOMER NEED COFFE BROWN SUIT, WE DONT HAVE THE SHADE.</t>
+          <t xml:space="preserve">beach sand colour suit not available in store</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="65">
+        <v>5</v>
+      </c>
+      <c t="inlineStr" r="B7">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C7">
+        <is>
+          <t xml:space="preserve">SAHAL</t>
+        </is>
+      </c>
+      <c r="D7" s="65">
+        <v>7907034399</v>
+      </c>
+      <c t="inlineStr" r="E7">
+        <is>
+          <t xml:space="preserve">25-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F7">
+        <is>
+          <t xml:space="preserve">RASEEB E A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G7">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H7">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I7">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J7">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K7">
+        <is>
+          <t xml:space="preserve">PRODUCT WAS NOT AVAILABLE FOR TRAIL</t>
         </is>
       </c>
     </row>

--- a/data/lossofsale_sg_thrissur.xlsx
+++ b/data/lossofsale_sg_thrissur.xlsx
@@ -284,20 +284,20 @@
       </c>
       <c t="inlineStr" r="B3">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">faris</t>
+          <t xml:space="preserve">sajin</t>
         </is>
       </c>
       <c r="D3" s="65">
-        <v>8891919126</v>
+        <v>9633991881</v>
       </c>
       <c t="inlineStr" r="E3">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">20-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F3">
@@ -317,7 +317,7 @@
       </c>
       <c t="inlineStr" r="I3">
         <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J3">
@@ -327,7 +327,7 @@
       </c>
       <c t="inlineStr" r="K3">
         <is>
-          <t xml:space="preserve">off white suit not available</t>
+          <t xml:space="preserve">kid suit not available</t>
         </is>
       </c>
     </row>
@@ -337,25 +337,25 @@
       </c>
       <c t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C4">
         <is>
-          <t xml:space="preserve">Sreeram</t>
+          <t xml:space="preserve">asnal</t>
         </is>
       </c>
       <c r="D4" s="65">
-        <v>9497473342</v>
+        <v>6282875569</v>
       </c>
       <c t="inlineStr" r="E4">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">25-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F4">
         <is>
-          <t xml:space="preserve">RASEEB E A</t>
+          <t xml:space="preserve">RAYAN K B</t>
         </is>
       </c>
       <c t="inlineStr" r="G4">
@@ -365,12 +365,12 @@
       </c>
       <c t="inlineStr" r="H4">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">PRICING</t>
         </is>
       </c>
       <c t="inlineStr" r="I4">
         <is>
-          <t xml:space="preserve">SIZE TOO LARGE</t>
+          <t xml:space="preserve">RENT TO HIGH</t>
         </is>
       </c>
       <c t="inlineStr" r="J4">
@@ -380,7 +380,7 @@
       </c>
       <c t="inlineStr" r="K4">
         <is>
-          <t xml:space="preserve">46 size not available</t>
+          <t xml:space="preserve">THEY NEED 5K IW ON 3K</t>
         </is>
       </c>
     </row>
@@ -390,25 +390,25 @@
       </c>
       <c t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C5">
         <is>
-          <t xml:space="preserve">ALEX</t>
+          <t xml:space="preserve">cristo</t>
         </is>
       </c>
       <c r="D5" s="65">
-        <v>7012357308</v>
+        <v>8289978423</v>
       </c>
       <c t="inlineStr" r="E5">
         <is>
-          <t xml:space="preserve">29-12-2025</t>
+          <t xml:space="preserve">20-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F5">
         <is>
-          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+          <t xml:space="preserve">RAYAN K B</t>
         </is>
       </c>
       <c t="inlineStr" r="G5">
@@ -423,7 +423,7 @@
       </c>
       <c t="inlineStr" r="I5">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J5">
@@ -433,7 +433,7 @@
       </c>
       <c t="inlineStr" r="K5">
         <is>
-          <t xml:space="preserve">WINE RED SUIT</t>
+          <t xml:space="preserve">coffee brown suit not available in store</t>
         </is>
       </c>
     </row>
@@ -443,20 +443,20 @@
       </c>
       <c t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C6">
         <is>
-          <t xml:space="preserve">AJMAL</t>
+          <t xml:space="preserve">Adhil</t>
         </is>
       </c>
       <c r="D6" s="65">
-        <v>9567651489</v>
+        <v>8485472798</v>
       </c>
       <c t="inlineStr" r="E6">
         <is>
-          <t xml:space="preserve">22-12-2025</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F6">
@@ -471,12 +471,12 @@
       </c>
       <c t="inlineStr" r="H6">
         <is>
-          <t xml:space="preserve">PRICING</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I6">
         <is>
-          <t xml:space="preserve">RENT TO HIGH</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J6">
@@ -486,7 +486,7 @@
       </c>
       <c t="inlineStr" r="K6">
         <is>
-          <t xml:space="preserve">THEY NEED WHITE I/W ON 3000 RUPEES</t>
+          <t xml:space="preserve">Groom liked our new white iw but the bride rejected every product he trailed through phone call, he said after discussion he will be confirm.</t>
         </is>
       </c>
     </row>
@@ -496,48 +496,737 @@
       </c>
       <c t="inlineStr" r="B7">
         <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C7">
+        <is>
+          <t xml:space="preserve">RAJ</t>
+        </is>
+      </c>
+      <c r="D7" s="65">
+        <v>9745479028</v>
+      </c>
+      <c t="inlineStr" r="E7">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F7">
+        <is>
+          <t xml:space="preserve">RASEEB E A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G7">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H7">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I7">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J7">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K7">
+        <is>
+          <t xml:space="preserve">CUSTOMER NEED FRESHLY STICHED PRODUCT.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="65">
+        <v>6</v>
+      </c>
+      <c t="inlineStr" r="B8">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C8">
+        <is>
+          <t xml:space="preserve">fathil</t>
+        </is>
+      </c>
+      <c r="D8" s="65">
+        <v>6335234812</v>
+      </c>
+      <c t="inlineStr" r="E8">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F8">
+        <is>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G8">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H8">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I8">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J8">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K8">
+        <is>
+          <t xml:space="preserve">glass work material dress required</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="65">
+        <v>7</v>
+      </c>
+      <c t="inlineStr" r="B9">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C9">
+        <is>
+          <t xml:space="preserve">adhith</t>
+        </is>
+      </c>
+      <c r="D9" s="65">
+        <v>8606122794</v>
+      </c>
+      <c t="inlineStr" r="E9">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F9">
+        <is>
+          <t xml:space="preserve">RAYAN K B</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G9">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H9">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I9">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J9">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K9">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT GROOM .</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="65">
+        <v>8</v>
+      </c>
+      <c t="inlineStr" r="B10">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C10">
+        <is>
+          <t xml:space="preserve">Sharon</t>
+        </is>
+      </c>
+      <c r="D10" s="65">
+        <v>9208143132</v>
+      </c>
+      <c t="inlineStr" r="E10">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F10">
+        <is>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G10">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H10">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I10">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J10">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K10">
+        <is>
+          <t xml:space="preserve">product not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="65">
+        <v>9</v>
+      </c>
+      <c t="inlineStr" r="B11">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C11">
+        <is>
+          <t xml:space="preserve">Nithin</t>
+        </is>
+      </c>
+      <c r="D11" s="65">
+        <v>8943053925</v>
+      </c>
+      <c t="inlineStr" r="E11">
+        <is>
+          <t xml:space="preserve">03-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F11">
+        <is>
+          <t xml:space="preserve">RAYAN K B</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G11">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H11">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I11">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J11">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K11">
+        <is>
+          <t xml:space="preserve">will update with family</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="65">
+        <v>10</v>
+      </c>
+      <c t="inlineStr" r="B12">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C12">
+        <is>
+          <t xml:space="preserve">adharv</t>
+        </is>
+      </c>
+      <c r="D12" s="65">
+        <v>7994499796</v>
+      </c>
+      <c t="inlineStr" r="E12">
+        <is>
+          <t xml:space="preserve">23-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F12">
+        <is>
+          <t xml:space="preserve">RAYAN K B</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G12">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H12">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I12">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J12">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K12">
+        <is>
+          <t xml:space="preserve">will update tomorrow</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="65">
+        <v>11</v>
+      </c>
+      <c t="inlineStr" r="B13">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C13">
+        <is>
+          <t xml:space="preserve">joyal</t>
+        </is>
+      </c>
+      <c r="D13" s="65">
+        <v>9567564713</v>
+      </c>
+      <c t="inlineStr" r="E13">
+        <is>
+          <t xml:space="preserve">08-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F13">
+        <is>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G13">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H13">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I13">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J13">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K13">
+        <is>
+          <t xml:space="preserve">navi blue suit not available in store</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="65">
+        <v>12</v>
+      </c>
+      <c t="inlineStr" r="B14">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C14">
+        <is>
+          <t xml:space="preserve">shibin</t>
+        </is>
+      </c>
+      <c r="D14" s="65">
+        <v>7907275586</v>
+      </c>
+      <c t="inlineStr" r="E14">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F14">
+        <is>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G14">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H14">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I14">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J14">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K14">
+        <is>
+          <t xml:space="preserve">beach sand colour suit not available in store</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="65">
+        <v>13</v>
+      </c>
+      <c t="inlineStr" r="B15">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C15">
+        <is>
+          <t xml:space="preserve">SAHAL</t>
+        </is>
+      </c>
+      <c r="D15" s="65">
+        <v>7907034399</v>
+      </c>
+      <c t="inlineStr" r="E15">
+        <is>
+          <t xml:space="preserve">25-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F15">
+        <is>
+          <t xml:space="preserve">RASEEB E A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G15">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H15">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I15">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J15">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K15">
+        <is>
+          <t xml:space="preserve">PRODUCT WAS NOT AVAILABLE FOR TRAIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="65">
+        <v>14</v>
+      </c>
+      <c t="inlineStr" r="B16">
+        <is>
           <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="C7">
+      <c t="inlineStr" r="C16">
+        <is>
+          <t xml:space="preserve">faris</t>
+        </is>
+      </c>
+      <c r="D16" s="65">
+        <v>8891919126</v>
+      </c>
+      <c t="inlineStr" r="E16">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F16">
+        <is>
+          <t xml:space="preserve">RASEEB E A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G16">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H16">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I16">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J16">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K16">
+        <is>
+          <t xml:space="preserve">off white suit not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="65">
+        <v>15</v>
+      </c>
+      <c t="inlineStr" r="B17">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C17">
+        <is>
+          <t xml:space="preserve">Sreeram</t>
+        </is>
+      </c>
+      <c r="D17" s="65">
+        <v>9497473342</v>
+      </c>
+      <c t="inlineStr" r="E17">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F17">
+        <is>
+          <t xml:space="preserve">RASEEB E A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G17">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H17">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I17">
+        <is>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J17">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K17">
+        <is>
+          <t xml:space="preserve">46 size not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="65">
+        <v>16</v>
+      </c>
+      <c t="inlineStr" r="B18">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C18">
+        <is>
+          <t xml:space="preserve">ALEX</t>
+        </is>
+      </c>
+      <c r="D18" s="65">
+        <v>7012357308</v>
+      </c>
+      <c t="inlineStr" r="E18">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F18">
+        <is>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G18">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H18">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I18">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J18">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K18">
+        <is>
+          <t xml:space="preserve">WINE RED SUIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="65">
+        <v>17</v>
+      </c>
+      <c t="inlineStr" r="B19">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C19">
+        <is>
+          <t xml:space="preserve">AJMAL</t>
+        </is>
+      </c>
+      <c r="D19" s="65">
+        <v>9567651489</v>
+      </c>
+      <c t="inlineStr" r="E19">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F19">
+        <is>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G19">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H19">
+        <is>
+          <t xml:space="preserve">PRICING</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I19">
+        <is>
+          <t xml:space="preserve">RENT TO HIGH</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J19">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K19">
+        <is>
+          <t xml:space="preserve">THEY NEED WHITE I/W ON 3000 RUPEES</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="65">
+        <v>18</v>
+      </c>
+      <c t="inlineStr" r="B20">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C20">
         <is>
           <t xml:space="preserve">ADNAN</t>
         </is>
       </c>
-      <c r="D7" s="65">
+      <c r="D20" s="65">
         <v>9847346021</v>
       </c>
-      <c t="inlineStr" r="E7">
+      <c t="inlineStr" r="E20">
         <is>
           <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="F7">
+      <c t="inlineStr" r="F20">
         <is>
           <t xml:space="preserve">ATHULKIRSHNA CS</t>
         </is>
       </c>
-      <c t="inlineStr" r="G7">
-        <is>
-          <t xml:space="preserve">Loss</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H7">
+      <c t="inlineStr" r="G20">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H20">
         <is>
           <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
-      <c t="inlineStr" r="I7">
+      <c t="inlineStr" r="I20">
         <is>
           <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
-      <c t="inlineStr" r="J7">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K7">
+      <c t="inlineStr" r="J20">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K20">
         <is>
           <t xml:space="preserve">HE LIKED THE PRODUCT BUT THE WIFE REJECTED THE PRODUCT THEY NEED TO VISIT OTHER SHOPS AND CONFIRM</t>
         </is>

--- a/data/lossofsale_sg_thrissur.xlsx
+++ b/data/lossofsale_sg_thrissur.xlsx
@@ -209,7 +209,7 @@
     <col min="6" max="6" width="20.25" customWidth="1"/>
     <col min="7" max="7" width="8.100000000000001" customWidth="1"/>
     <col min="8" max="8" width="32.400000000000006" customWidth="1"/>
-    <col min="9" max="9" width="37.800000000000004" customWidth="1"/>
+    <col min="9" max="9" width="39.150000000000006" customWidth="1"/>
     <col min="10" max="10" width="16.200000000000003" customWidth="1"/>
     <col min="11" max="11" width="54" customWidth="1"/>
   </cols>
@@ -284,25 +284,25 @@
       </c>
       <c t="inlineStr" r="B3">
         <is>
+          <t xml:space="preserve">10-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C3">
+        <is>
+          <t xml:space="preserve">mudhasar</t>
+        </is>
+      </c>
+      <c r="D3" s="65">
+        <v>9947966299</v>
+      </c>
+      <c t="inlineStr" r="E3">
+        <is>
           <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="C3">
-        <is>
-          <t xml:space="preserve">sajin</t>
-        </is>
-      </c>
-      <c r="D3" s="65">
-        <v>9633991881</v>
-      </c>
-      <c t="inlineStr" r="E3">
-        <is>
-          <t xml:space="preserve">20-12-2025</t>
-        </is>
-      </c>
       <c t="inlineStr" r="F3">
         <is>
-          <t xml:space="preserve">RASEEB E A</t>
+          <t xml:space="preserve">RAYAN K B</t>
         </is>
       </c>
       <c t="inlineStr" r="G3">
@@ -317,7 +317,7 @@
       </c>
       <c t="inlineStr" r="I3">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">REQUIRED DESIGN NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J3">
@@ -327,7 +327,7 @@
       </c>
       <c t="inlineStr" r="K3">
         <is>
-          <t xml:space="preserve">kid suit not available</t>
+          <t xml:space="preserve">CUSTOMER NEED 48 SIZE</t>
         </is>
       </c>
     </row>
@@ -337,20 +337,20 @@
       </c>
       <c t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">10-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C4">
         <is>
-          <t xml:space="preserve">asnal</t>
+          <t xml:space="preserve">irfan</t>
         </is>
       </c>
       <c r="D4" s="65">
-        <v>6282875569</v>
+        <v>9744864264</v>
       </c>
       <c t="inlineStr" r="E4">
         <is>
-          <t xml:space="preserve">25-01-2026</t>
+          <t xml:space="preserve">04-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F4">
@@ -365,12 +365,12 @@
       </c>
       <c t="inlineStr" r="H4">
         <is>
-          <t xml:space="preserve">PRICING</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I4">
         <is>
-          <t xml:space="preserve">RENT TO HIGH</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J4">
@@ -380,7 +380,7 @@
       </c>
       <c t="inlineStr" r="K4">
         <is>
-          <t xml:space="preserve">THEY NEED 5K IW ON 3K</t>
+          <t xml:space="preserve">WANT TO VISIT CHAVAKKAD STORE</t>
         </is>
       </c>
     </row>
@@ -390,20 +390,20 @@
       </c>
       <c t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">10-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C5">
         <is>
-          <t xml:space="preserve">cristo</t>
+          <t xml:space="preserve">salidh</t>
         </is>
       </c>
       <c r="D5" s="65">
-        <v>8289978423</v>
+        <v>7594903480</v>
       </c>
       <c t="inlineStr" r="E5">
         <is>
-          <t xml:space="preserve">20-01-2026</t>
+          <t xml:space="preserve">04-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F5">
@@ -418,12 +418,12 @@
       </c>
       <c t="inlineStr" r="H5">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I5">
         <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J5">
@@ -433,7 +433,7 @@
       </c>
       <c t="inlineStr" r="K5">
         <is>
-          <t xml:space="preserve">coffee brown suit not available in store</t>
+          <t xml:space="preserve">KURTHA MODEL NOT AWAILABLE</t>
         </is>
       </c>
     </row>
@@ -443,25 +443,25 @@
       </c>
       <c t="inlineStr" r="B6">
         <is>
+          <t xml:space="preserve">11-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C6">
+        <is>
+          <t xml:space="preserve">amal</t>
+        </is>
+      </c>
+      <c r="D6" s="65">
+        <v>7306414080</v>
+      </c>
+      <c t="inlineStr" r="E6">
+        <is>
           <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="C6">
-        <is>
-          <t xml:space="preserve">Adhil</t>
-        </is>
-      </c>
-      <c r="D6" s="65">
-        <v>8485472798</v>
-      </c>
-      <c t="inlineStr" r="E6">
-        <is>
-          <t xml:space="preserve">21-12-2025</t>
-        </is>
-      </c>
       <c t="inlineStr" r="F6">
         <is>
-          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+          <t xml:space="preserve">RASEEB E A</t>
         </is>
       </c>
       <c t="inlineStr" r="G6">
@@ -471,12 +471,12 @@
       </c>
       <c t="inlineStr" r="H6">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I6">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J6">
@@ -486,7 +486,7 @@
       </c>
       <c t="inlineStr" r="K6">
         <is>
-          <t xml:space="preserve">Groom liked our new white iw but the bride rejected every product he trailed through phone call, he said after discussion he will be confirm.</t>
+          <t xml:space="preserve">linen metrial suit not available</t>
         </is>
       </c>
     </row>
@@ -496,25 +496,25 @@
       </c>
       <c t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">14-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C7">
         <is>
-          <t xml:space="preserve">RAJ</t>
+          <t xml:space="preserve">irfan</t>
         </is>
       </c>
       <c r="D7" s="65">
-        <v>9745479028</v>
+        <v>9746239680</v>
       </c>
       <c t="inlineStr" r="E7">
         <is>
-          <t xml:space="preserve">28-12-2025</t>
+          <t xml:space="preserve">10-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F7">
         <is>
-          <t xml:space="preserve">RASEEB E A</t>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
         </is>
       </c>
       <c t="inlineStr" r="G7">
@@ -524,12 +524,12 @@
       </c>
       <c t="inlineStr" r="H7">
         <is>
-          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I7">
         <is>
-          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J7">
@@ -539,7 +539,7 @@
       </c>
       <c t="inlineStr" r="K7">
         <is>
-          <t xml:space="preserve">CUSTOMER NEED FRESHLY STICHED PRODUCT.</t>
+          <t xml:space="preserve">NEED CUSTOMISATION</t>
         </is>
       </c>
     </row>
@@ -549,16 +549,16 @@
       </c>
       <c t="inlineStr" r="B8">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C8">
         <is>
-          <t xml:space="preserve">fathil</t>
+          <t xml:space="preserve">SHEBEER</t>
         </is>
       </c>
       <c r="D8" s="65">
-        <v>6335234812</v>
+        <v>6235598860</v>
       </c>
       <c t="inlineStr" r="E8">
         <is>
@@ -567,7 +567,7 @@
       </c>
       <c t="inlineStr" r="F8">
         <is>
-          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+          <t xml:space="preserve">RAYAN K B</t>
         </is>
       </c>
       <c t="inlineStr" r="G8">
@@ -582,7 +582,7 @@
       </c>
       <c t="inlineStr" r="I8">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">Product Already Booked</t>
         </is>
       </c>
       <c t="inlineStr" r="J8">
@@ -592,7 +592,7 @@
       </c>
       <c t="inlineStr" r="K8">
         <is>
-          <t xml:space="preserve">glass work material dress required</t>
+          <t xml:space="preserve">will update if any other model required</t>
         </is>
       </c>
     </row>
@@ -602,20 +602,20 @@
       </c>
       <c t="inlineStr" r="B9">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C9">
         <is>
-          <t xml:space="preserve">adhith</t>
+          <t xml:space="preserve">NIRMAL</t>
         </is>
       </c>
       <c r="D9" s="65">
-        <v>8606122794</v>
+        <v>9400454645</v>
       </c>
       <c t="inlineStr" r="E9">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">31-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F9">
@@ -630,12 +630,12 @@
       </c>
       <c t="inlineStr" r="H9">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I9">
         <is>
-          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J9">
@@ -645,7 +645,7 @@
       </c>
       <c t="inlineStr" r="K9">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT GROOM .</t>
+          <t xml:space="preserve">want to discuss with family and cousins</t>
         </is>
       </c>
     </row>
@@ -655,25 +655,25 @@
       </c>
       <c t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">11-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C10">
         <is>
-          <t xml:space="preserve">Sharon</t>
+          <t xml:space="preserve">vinod</t>
         </is>
       </c>
       <c r="D10" s="65">
-        <v>9208143132</v>
+        <v>9961599027</v>
       </c>
       <c t="inlineStr" r="E10">
         <is>
-          <t xml:space="preserve">15-12-2025</t>
+          <t xml:space="preserve">13-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F10">
         <is>
-          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+          <t xml:space="preserve">RAYAN K B</t>
         </is>
       </c>
       <c t="inlineStr" r="G10">
@@ -683,12 +683,12 @@
       </c>
       <c t="inlineStr" r="H10">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I10">
         <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J10">
@@ -698,7 +698,7 @@
       </c>
       <c t="inlineStr" r="K10">
         <is>
-          <t xml:space="preserve">product not available</t>
+          <t xml:space="preserve">will update tomorrow</t>
         </is>
       </c>
     </row>
@@ -708,20 +708,20 @@
       </c>
       <c t="inlineStr" r="B11">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C11">
         <is>
-          <t xml:space="preserve">Nithin</t>
+          <t xml:space="preserve">arshad</t>
         </is>
       </c>
       <c r="D11" s="65">
-        <v>8943053925</v>
+        <v>8589909549</v>
       </c>
       <c t="inlineStr" r="E11">
         <is>
-          <t xml:space="preserve">03-01-2026</t>
+          <t xml:space="preserve">21-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F11">
@@ -736,12 +736,12 @@
       </c>
       <c t="inlineStr" r="H11">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I11">
         <is>
-          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+          <t xml:space="preserve">Product Already Booked</t>
         </is>
       </c>
       <c t="inlineStr" r="J11">
@@ -751,7 +751,7 @@
       </c>
       <c t="inlineStr" r="K11">
         <is>
-          <t xml:space="preserve">will update with family</t>
+          <t xml:space="preserve">HE NEED BLACK, PRODUCT ALREADY BOOKED FOR THE DATE</t>
         </is>
       </c>
     </row>
@@ -761,25 +761,25 @@
       </c>
       <c t="inlineStr" r="B12">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C12">
         <is>
-          <t xml:space="preserve">adharv</t>
+          <t xml:space="preserve">Nikhil</t>
         </is>
       </c>
       <c r="D12" s="65">
-        <v>7994499796</v>
+        <v>9947358440</v>
       </c>
       <c t="inlineStr" r="E12">
         <is>
-          <t xml:space="preserve">23-12-2025</t>
+          <t xml:space="preserve">24-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F12">
         <is>
-          <t xml:space="preserve">RAYAN K B</t>
+          <t xml:space="preserve">SHYAMNADH T J</t>
         </is>
       </c>
       <c t="inlineStr" r="G12">
@@ -789,12 +789,12 @@
       </c>
       <c t="inlineStr" r="H12">
         <is>
-          <t xml:space="preserve">ENQUIRY</t>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
       <c t="inlineStr" r="I12">
         <is>
-          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
       <c t="inlineStr" r="J12">
@@ -804,7 +804,7 @@
       </c>
       <c t="inlineStr" r="K12">
         <is>
-          <t xml:space="preserve">will update tomorrow</t>
+          <t xml:space="preserve">HE NOT LIKED OUR STORE ATMOSPHERE</t>
         </is>
       </c>
     </row>
@@ -814,25 +814,25 @@
       </c>
       <c t="inlineStr" r="B13">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C13">
         <is>
-          <t xml:space="preserve">joyal</t>
+          <t xml:space="preserve">amal</t>
         </is>
       </c>
       <c r="D13" s="65">
-        <v>9567564713</v>
+        <v>9526147667</v>
       </c>
       <c t="inlineStr" r="E13">
         <is>
-          <t xml:space="preserve">08-01-2026</t>
+          <t xml:space="preserve">21-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F13">
         <is>
-          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+          <t xml:space="preserve">RAYAN K B</t>
         </is>
       </c>
       <c t="inlineStr" r="G13">
@@ -842,12 +842,12 @@
       </c>
       <c t="inlineStr" r="H13">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I13">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J13">
@@ -857,7 +857,7 @@
       </c>
       <c t="inlineStr" r="K13">
         <is>
-          <t xml:space="preserve">navi blue suit not available in store</t>
+          <t xml:space="preserve">will update</t>
         </is>
       </c>
     </row>
@@ -867,25 +867,25 @@
       </c>
       <c t="inlineStr" r="B14">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C14">
         <is>
-          <t xml:space="preserve">shibin</t>
+          <t xml:space="preserve">sijo suresh</t>
         </is>
       </c>
       <c r="D14" s="65">
-        <v>7907275586</v>
+        <v>9745671690</v>
       </c>
       <c t="inlineStr" r="E14">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">14-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F14">
         <is>
-          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+          <t xml:space="preserve">RAYAN K B</t>
         </is>
       </c>
       <c t="inlineStr" r="G14">
@@ -910,7 +910,7 @@
       </c>
       <c t="inlineStr" r="K14">
         <is>
-          <t xml:space="preserve">beach sand colour suit not available in store</t>
+          <t xml:space="preserve">customer is too tall . 42 size I/W length is to short for coustomer</t>
         </is>
       </c>
     </row>
@@ -920,25 +920,25 @@
       </c>
       <c t="inlineStr" r="B15">
         <is>
-          <t xml:space="preserve">16-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C15">
         <is>
-          <t xml:space="preserve">SAHAL</t>
+          <t xml:space="preserve">cristo</t>
         </is>
       </c>
       <c r="D15" s="65">
-        <v>7907034399</v>
+        <v>9745856293</v>
       </c>
       <c t="inlineStr" r="E15">
         <is>
-          <t xml:space="preserve">25-01-2026</t>
+          <t xml:space="preserve">10-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F15">
         <is>
-          <t xml:space="preserve">RASEEB E A</t>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
         </is>
       </c>
       <c t="inlineStr" r="G15">
@@ -948,12 +948,12 @@
       </c>
       <c t="inlineStr" r="H15">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I15">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
         </is>
       </c>
       <c t="inlineStr" r="J15">
@@ -963,7 +963,7 @@
       </c>
       <c t="inlineStr" r="K15">
         <is>
-          <t xml:space="preserve">PRODUCT WAS NOT AVAILABLE FOR TRAIL</t>
+          <t xml:space="preserve">NEED FAMILY DISCUSSION</t>
         </is>
       </c>
     </row>
@@ -973,25 +973,25 @@
       </c>
       <c t="inlineStr" r="B16">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C16">
         <is>
-          <t xml:space="preserve">faris</t>
+          <t xml:space="preserve">RAIHAN</t>
         </is>
       </c>
       <c r="D16" s="65">
-        <v>8891919126</v>
+        <v>9061001393</v>
       </c>
       <c t="inlineStr" r="E16">
         <is>
-          <t xml:space="preserve">21-12-2025</t>
+          <t xml:space="preserve">14-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F16">
         <is>
-          <t xml:space="preserve">RASEEB E A</t>
+          <t xml:space="preserve">SHYAMNADH T J</t>
         </is>
       </c>
       <c t="inlineStr" r="G16">
@@ -1006,7 +1006,7 @@
       </c>
       <c t="inlineStr" r="I16">
         <is>
-          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J16">
@@ -1016,7 +1016,7 @@
       </c>
       <c t="inlineStr" r="K16">
         <is>
-          <t xml:space="preserve">off white suit not available</t>
+          <t xml:space="preserve">COFEE BROWN SUIT</t>
         </is>
       </c>
     </row>
@@ -1026,25 +1026,25 @@
       </c>
       <c t="inlineStr" r="B17">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">12-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C17">
         <is>
-          <t xml:space="preserve">Sreeram</t>
+          <t xml:space="preserve">shahul</t>
         </is>
       </c>
       <c r="D17" s="65">
-        <v>9497473342</v>
+        <v>8714195062</v>
       </c>
       <c t="inlineStr" r="E17">
         <is>
-          <t xml:space="preserve">20-12-2025</t>
+          <t xml:space="preserve">08-02-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F17">
         <is>
-          <t xml:space="preserve">RASEEB E A</t>
+          <t xml:space="preserve">SHYAMNADH T J</t>
         </is>
       </c>
       <c t="inlineStr" r="G17">
@@ -1054,12 +1054,12 @@
       </c>
       <c t="inlineStr" r="H17">
         <is>
-          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I17">
         <is>
-          <t xml:space="preserve">SIZE TOO LARGE</t>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
         </is>
       </c>
       <c t="inlineStr" r="J17">
@@ -1069,7 +1069,7 @@
       </c>
       <c t="inlineStr" r="K17">
         <is>
-          <t xml:space="preserve">46 size not available</t>
+          <t xml:space="preserve">SHORT KURUTHA</t>
         </is>
       </c>
     </row>
@@ -1079,25 +1079,25 @@
       </c>
       <c t="inlineStr" r="B18">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C18">
         <is>
-          <t xml:space="preserve">ALEX</t>
+          <t xml:space="preserve">dijo</t>
         </is>
       </c>
       <c r="D18" s="65">
-        <v>7012357308</v>
+        <v>9544051309</v>
       </c>
       <c t="inlineStr" r="E18">
         <is>
-          <t xml:space="preserve">29-12-2025</t>
+          <t xml:space="preserve">11-01-2026</t>
         </is>
       </c>
       <c t="inlineStr" r="F18">
         <is>
-          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+          <t xml:space="preserve">RASEEB E A</t>
         </is>
       </c>
       <c t="inlineStr" r="G18">
@@ -1107,12 +1107,12 @@
       </c>
       <c t="inlineStr" r="H18">
         <is>
-          <t xml:space="preserve">PRODUCT</t>
+          <t xml:space="preserve">ENQUIRY</t>
         </is>
       </c>
       <c t="inlineStr" r="I18">
         <is>
-          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
         </is>
       </c>
       <c t="inlineStr" r="J18">
@@ -1122,7 +1122,7 @@
       </c>
       <c t="inlineStr" r="K18">
         <is>
-          <t xml:space="preserve">WINE RED SUIT</t>
+          <t xml:space="preserve">HE JUST STARTED PURCHASES AND NEED TO VIST ANOTHER STORES AFTER THEY WILL FINALISE.</t>
         </is>
       </c>
     </row>
@@ -1132,25 +1132,25 @@
       </c>
       <c t="inlineStr" r="B19">
         <is>
-          <t xml:space="preserve">17-12-2025</t>
+          <t xml:space="preserve">13-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="C19">
         <is>
-          <t xml:space="preserve">AJMAL</t>
+          <t xml:space="preserve">SRAVAN</t>
         </is>
       </c>
       <c r="D19" s="65">
-        <v>9567651489</v>
+        <v>6282866628</v>
       </c>
       <c t="inlineStr" r="E19">
         <is>
-          <t xml:space="preserve">22-12-2025</t>
+          <t xml:space="preserve">24-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="F19">
         <is>
-          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+          <t xml:space="preserve">RASEEB E A</t>
         </is>
       </c>
       <c t="inlineStr" r="G19">
@@ -1160,12 +1160,12 @@
       </c>
       <c t="inlineStr" r="H19">
         <is>
-          <t xml:space="preserve">PRICING</t>
+          <t xml:space="preserve">PRODUCT</t>
         </is>
       </c>
       <c t="inlineStr" r="I19">
         <is>
-          <t xml:space="preserve">RENT TO HIGH</t>
+          <t xml:space="preserve">Product Already Booked</t>
         </is>
       </c>
       <c t="inlineStr" r="J19">
@@ -1175,7 +1175,7 @@
       </c>
       <c t="inlineStr" r="K19">
         <is>
-          <t xml:space="preserve">THEY NEED WHITE I/W ON 3000 RUPEES</t>
+          <t xml:space="preserve">BLACK BANGALA NEEDED, BUT ALREADY BOOKED</t>
         </is>
       </c>
     </row>
@@ -1185,50 +1185,2806 @@
       </c>
       <c t="inlineStr" r="B20">
         <is>
+          <t xml:space="preserve">13-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C20">
+        <is>
+          <t xml:space="preserve">Prejith</t>
+        </is>
+      </c>
+      <c r="D20" s="65">
+        <v>8086388798</v>
+      </c>
+      <c t="inlineStr" r="E20">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F20">
+        <is>
+          <t xml:space="preserve">SHYAMNADH T J</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G20">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H20">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I20">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J20">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K20">
+        <is>
+          <t xml:space="preserve">HE NEED NEHRU JACKET HE WILL VISIT AFTER THE PURCHASE OF KURTHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="65">
+        <v>19</v>
+      </c>
+      <c t="inlineStr" r="B21">
+        <is>
+          <t xml:space="preserve">13-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C21">
+        <is>
+          <t xml:space="preserve">hari</t>
+        </is>
+      </c>
+      <c r="D21" s="65">
+        <v>8086254776</v>
+      </c>
+      <c t="inlineStr" r="E21">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F21">
+        <is>
+          <t xml:space="preserve">RAYAN K B</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G21">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H21">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I21">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J21">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K21">
+        <is>
+          <t xml:space="preserve">required size is on rent out . they will revisit when it is available</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="65">
+        <v>20</v>
+      </c>
+      <c t="inlineStr" r="B22">
+        <is>
+          <t xml:space="preserve">13-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C22">
+        <is>
+          <t xml:space="preserve">Sanjay</t>
+        </is>
+      </c>
+      <c r="D22" s="65">
+        <v>7736690669</v>
+      </c>
+      <c t="inlineStr" r="E22">
+        <is>
+          <t xml:space="preserve">01-02-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F22">
+        <is>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G22">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H22">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I22">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J22">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K22">
+        <is>
+          <t xml:space="preserve">TRIAL ROOM UNDER MAINTENANCE OF HIS VISTING TIME HE WILL VISIT TOMORROW.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="65">
+        <v>21</v>
+      </c>
+      <c t="inlineStr" r="B23">
+        <is>
+          <t xml:space="preserve">13-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C23">
+        <is>
+          <t xml:space="preserve">benit</t>
+        </is>
+      </c>
+      <c r="D23" s="65">
+        <v>9745672839</v>
+      </c>
+      <c t="inlineStr" r="E23">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F23">
+        <is>
+          <t xml:space="preserve">RASEEB E A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G23">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H23">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I23">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J23">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K23">
+        <is>
+          <t xml:space="preserve">just visit</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="65">
+        <v>22</v>
+      </c>
+      <c t="inlineStr" r="B24">
+        <is>
+          <t xml:space="preserve">13-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C24">
+        <is>
+          <t xml:space="preserve">abin</t>
+        </is>
+      </c>
+      <c r="D24" s="65">
+        <v>9074654176</v>
+      </c>
+      <c t="inlineStr" r="E24">
+        <is>
+          <t xml:space="preserve">18-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F24">
+        <is>
+          <t xml:space="preserve">RAYAN K B</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G24">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H24">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I24">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J24">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K24">
+        <is>
+          <t xml:space="preserve">44 size bengala not available in store</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="65">
+        <v>23</v>
+      </c>
+      <c t="inlineStr" r="B25">
+        <is>
+          <t xml:space="preserve">13-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C25">
+        <is>
+          <t xml:space="preserve">SHAFEEK</t>
+        </is>
+      </c>
+      <c r="D25" s="65">
+        <v>8072498411</v>
+      </c>
+      <c t="inlineStr" r="E25">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F25">
+        <is>
+          <t xml:space="preserve">SHYAMNADH T J</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G25">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H25">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I25">
+        <is>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J25">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K25">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="65">
+        <v>24</v>
+      </c>
+      <c t="inlineStr" r="B26">
+        <is>
+          <t xml:space="preserve">13-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C26">
+        <is>
+          <t xml:space="preserve">ronit</t>
+        </is>
+      </c>
+      <c r="D26" s="65">
+        <v>7356044504</v>
+      </c>
+      <c t="inlineStr" r="E26">
+        <is>
+          <t xml:space="preserve">17-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F26">
+        <is>
+          <t xml:space="preserve">RASEEB E A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G26">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H26">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I26">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J26">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K26">
+        <is>
+          <t xml:space="preserve">THEIR GROOM WILL BE COMING ON NEXT MONTH 15 FUNCTION IS ON 17TH</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="65">
+        <v>25</v>
+      </c>
+      <c t="inlineStr" r="B27">
+        <is>
+          <t xml:space="preserve">13-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C27">
+        <is>
+          <t xml:space="preserve">JERIN</t>
+        </is>
+      </c>
+      <c r="D27" s="65">
+        <v>8289860273</v>
+      </c>
+      <c t="inlineStr" r="E27">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F27">
+        <is>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G27">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H27">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I27">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J27">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K27">
+        <is>
+          <t xml:space="preserve">NEED KANTHURA</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="65">
+        <v>26</v>
+      </c>
+      <c t="inlineStr" r="B28">
+        <is>
+          <t xml:space="preserve">13-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C28">
+        <is>
+          <t xml:space="preserve">FADAL</t>
+        </is>
+      </c>
+      <c r="D28" s="65">
+        <v>8590197399</v>
+      </c>
+      <c t="inlineStr" r="E28">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F28">
+        <is>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G28">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H28">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I28">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J28">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K28">
+        <is>
+          <t xml:space="preserve">BLACK ARMANI KURTHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="65">
+        <v>27</v>
+      </c>
+      <c t="inlineStr" r="B29">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C29">
+        <is>
+          <t xml:space="preserve">sajin</t>
+        </is>
+      </c>
+      <c r="D29" s="65">
+        <v>9633991881</v>
+      </c>
+      <c t="inlineStr" r="E29">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F29">
+        <is>
+          <t xml:space="preserve">RASEEB E A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G29">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H29">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I29">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J29">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K29">
+        <is>
+          <t xml:space="preserve">kid suit not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="65">
+        <v>28</v>
+      </c>
+      <c t="inlineStr" r="B30">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C30">
+        <is>
+          <t xml:space="preserve">asnal</t>
+        </is>
+      </c>
+      <c r="D30" s="65">
+        <v>6282875569</v>
+      </c>
+      <c t="inlineStr" r="E30">
+        <is>
+          <t xml:space="preserve">25-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F30">
+        <is>
+          <t xml:space="preserve">RAYAN K B</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G30">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H30">
+        <is>
+          <t xml:space="preserve">PRICING</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I30">
+        <is>
+          <t xml:space="preserve">RENT TO HIGH</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J30">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K30">
+        <is>
+          <t xml:space="preserve">THEY NEED 5K IW ON 3K</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="65">
+        <v>29</v>
+      </c>
+      <c t="inlineStr" r="B31">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C31">
+        <is>
+          <t xml:space="preserve">cristo</t>
+        </is>
+      </c>
+      <c r="D31" s="65">
+        <v>8289978423</v>
+      </c>
+      <c t="inlineStr" r="E31">
+        <is>
+          <t xml:space="preserve">20-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F31">
+        <is>
+          <t xml:space="preserve">RAYAN K B</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G31">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H31">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I31">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J31">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K31">
+        <is>
+          <t xml:space="preserve">coffee brown suit not available in store</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="65">
+        <v>30</v>
+      </c>
+      <c t="inlineStr" r="B32">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C32">
+        <is>
+          <t xml:space="preserve">Adhil</t>
+        </is>
+      </c>
+      <c r="D32" s="65">
+        <v>8485472798</v>
+      </c>
+      <c t="inlineStr" r="E32">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F32">
+        <is>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G32">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H32">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I32">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J32">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K32">
+        <is>
+          <t xml:space="preserve">Groom liked our new white iw but the bride rejected every product he trailed through phone call, he said after discussion he will be confirm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="65">
+        <v>31</v>
+      </c>
+      <c t="inlineStr" r="B33">
+        <is>
+          <t xml:space="preserve">14-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C33">
+        <is>
+          <t xml:space="preserve">RAJ</t>
+        </is>
+      </c>
+      <c r="D33" s="65">
+        <v>9745479028</v>
+      </c>
+      <c t="inlineStr" r="E33">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F33">
+        <is>
+          <t xml:space="preserve">RASEEB E A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G33">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H33">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I33">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J33">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K33">
+        <is>
+          <t xml:space="preserve">CUSTOMER NEED FRESHLY STICHED PRODUCT.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="65">
+        <v>32</v>
+      </c>
+      <c t="inlineStr" r="B34">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C34">
+        <is>
+          <t xml:space="preserve">fathil</t>
+        </is>
+      </c>
+      <c r="D34" s="65">
+        <v>6335234812</v>
+      </c>
+      <c t="inlineStr" r="E34">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F34">
+        <is>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G34">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H34">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I34">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J34">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K34">
+        <is>
+          <t xml:space="preserve">glass work material dress required</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="65">
+        <v>33</v>
+      </c>
+      <c t="inlineStr" r="B35">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C35">
+        <is>
+          <t xml:space="preserve">adhith</t>
+        </is>
+      </c>
+      <c r="D35" s="65">
+        <v>8606122794</v>
+      </c>
+      <c t="inlineStr" r="E35">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F35">
+        <is>
+          <t xml:space="preserve">RAYAN K B</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G35">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H35">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I35">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J35">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K35">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT GROOM .</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="65">
+        <v>34</v>
+      </c>
+      <c t="inlineStr" r="B36">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C36">
+        <is>
+          <t xml:space="preserve">Sharon</t>
+        </is>
+      </c>
+      <c r="D36" s="65">
+        <v>9208143132</v>
+      </c>
+      <c t="inlineStr" r="E36">
+        <is>
+          <t xml:space="preserve">15-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F36">
+        <is>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G36">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H36">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I36">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J36">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K36">
+        <is>
+          <t xml:space="preserve">product not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="65">
+        <v>35</v>
+      </c>
+      <c t="inlineStr" r="B37">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C37">
+        <is>
+          <t xml:space="preserve">Nithin</t>
+        </is>
+      </c>
+      <c r="D37" s="65">
+        <v>8943053925</v>
+      </c>
+      <c t="inlineStr" r="E37">
+        <is>
+          <t xml:space="preserve">03-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F37">
+        <is>
+          <t xml:space="preserve">RAYAN K B</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G37">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H37">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I37">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J37">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K37">
+        <is>
+          <t xml:space="preserve">will update with family</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="65">
+        <v>36</v>
+      </c>
+      <c t="inlineStr" r="B38">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C38">
+        <is>
+          <t xml:space="preserve">adharv</t>
+        </is>
+      </c>
+      <c r="D38" s="65">
+        <v>7994499796</v>
+      </c>
+      <c t="inlineStr" r="E38">
+        <is>
+          <t xml:space="preserve">23-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F38">
+        <is>
+          <t xml:space="preserve">RAYAN K B</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G38">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H38">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I38">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J38">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K38">
+        <is>
+          <t xml:space="preserve">will update tomorrow</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="65">
+        <v>37</v>
+      </c>
+      <c t="inlineStr" r="B39">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C39">
+        <is>
+          <t xml:space="preserve">joyal</t>
+        </is>
+      </c>
+      <c r="D39" s="65">
+        <v>9567564713</v>
+      </c>
+      <c t="inlineStr" r="E39">
+        <is>
+          <t xml:space="preserve">08-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F39">
+        <is>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G39">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H39">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I39">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J39">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K39">
+        <is>
+          <t xml:space="preserve">navi blue suit not available in store</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="65">
+        <v>38</v>
+      </c>
+      <c t="inlineStr" r="B40">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C40">
+        <is>
+          <t xml:space="preserve">shibin</t>
+        </is>
+      </c>
+      <c r="D40" s="65">
+        <v>7907275586</v>
+      </c>
+      <c t="inlineStr" r="E40">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F40">
+        <is>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G40">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H40">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I40">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J40">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K40">
+        <is>
+          <t xml:space="preserve">beach sand colour suit not available in store</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="65">
+        <v>39</v>
+      </c>
+      <c t="inlineStr" r="B41">
+        <is>
+          <t xml:space="preserve">16-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C41">
+        <is>
+          <t xml:space="preserve">SAHAL</t>
+        </is>
+      </c>
+      <c r="D41" s="65">
+        <v>7907034399</v>
+      </c>
+      <c t="inlineStr" r="E41">
+        <is>
+          <t xml:space="preserve">25-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F41">
+        <is>
+          <t xml:space="preserve">RASEEB E A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G41">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H41">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I41">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J41">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K41">
+        <is>
+          <t xml:space="preserve">PRODUCT WAS NOT AVAILABLE FOR TRAIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="65">
+        <v>40</v>
+      </c>
+      <c t="inlineStr" r="B42">
+        <is>
           <t xml:space="preserve">17-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="C20">
+      <c t="inlineStr" r="C42">
+        <is>
+          <t xml:space="preserve">faris</t>
+        </is>
+      </c>
+      <c r="D42" s="65">
+        <v>8891919126</v>
+      </c>
+      <c t="inlineStr" r="E42">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F42">
+        <is>
+          <t xml:space="preserve">RASEEB E A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G42">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H42">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I42">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J42">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K42">
+        <is>
+          <t xml:space="preserve">off white suit not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="65">
+        <v>41</v>
+      </c>
+      <c t="inlineStr" r="B43">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C43">
+        <is>
+          <t xml:space="preserve">Sreeram</t>
+        </is>
+      </c>
+      <c r="D43" s="65">
+        <v>9497473342</v>
+      </c>
+      <c t="inlineStr" r="E43">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F43">
+        <is>
+          <t xml:space="preserve">RASEEB E A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G43">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H43">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I43">
+        <is>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J43">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K43">
+        <is>
+          <t xml:space="preserve">46 size not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="65">
+        <v>42</v>
+      </c>
+      <c t="inlineStr" r="B44">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C44">
+        <is>
+          <t xml:space="preserve">ALEX</t>
+        </is>
+      </c>
+      <c r="D44" s="65">
+        <v>7012357308</v>
+      </c>
+      <c t="inlineStr" r="E44">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F44">
+        <is>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G44">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H44">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I44">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J44">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K44">
+        <is>
+          <t xml:space="preserve">WINE RED SUIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="65">
+        <v>43</v>
+      </c>
+      <c t="inlineStr" r="B45">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C45">
+        <is>
+          <t xml:space="preserve">AJMAL</t>
+        </is>
+      </c>
+      <c r="D45" s="65">
+        <v>9567651489</v>
+      </c>
+      <c t="inlineStr" r="E45">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F45">
+        <is>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G45">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H45">
+        <is>
+          <t xml:space="preserve">PRICING</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I45">
+        <is>
+          <t xml:space="preserve">RENT TO HIGH</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J45">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K45">
+        <is>
+          <t xml:space="preserve">THEY NEED WHITE I/W ON 3000 RUPEES</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="65">
+        <v>44</v>
+      </c>
+      <c t="inlineStr" r="B46">
+        <is>
+          <t xml:space="preserve">17-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C46">
         <is>
           <t xml:space="preserve">ADNAN</t>
         </is>
       </c>
-      <c r="D20" s="65">
+      <c r="D46" s="65">
         <v>9847346021</v>
       </c>
-      <c t="inlineStr" r="E20">
+      <c t="inlineStr" r="E46">
         <is>
           <t xml:space="preserve">22-12-2025</t>
         </is>
       </c>
-      <c t="inlineStr" r="F20">
+      <c t="inlineStr" r="F46">
         <is>
           <t xml:space="preserve">ATHULKIRSHNA CS</t>
         </is>
       </c>
-      <c t="inlineStr" r="G20">
-        <is>
-          <t xml:space="preserve">Loss</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H20">
+      <c t="inlineStr" r="G46">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H46">
         <is>
           <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
         </is>
       </c>
-      <c t="inlineStr" r="I20">
+      <c t="inlineStr" r="I46">
         <is>
           <t xml:space="preserve">FAMILY DISAPPROVEL</t>
         </is>
       </c>
-      <c t="inlineStr" r="J20">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="K20">
+      <c t="inlineStr" r="J46">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K46">
         <is>
           <t xml:space="preserve">HE LIKED THE PRODUCT BUT THE WIFE REJECTED THE PRODUCT THEY NEED TO VISIT OTHER SHOPS AND CONFIRM</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="65">
+        <v>45</v>
+      </c>
+      <c t="inlineStr" r="B47">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C47">
+        <is>
+          <t xml:space="preserve">Adarsh</t>
+        </is>
+      </c>
+      <c r="D47" s="65">
+        <v>7356848017</v>
+      </c>
+      <c t="inlineStr" r="E47">
+        <is>
+          <t xml:space="preserve">11-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F47">
+        <is>
+          <t xml:space="preserve">RAYAN K B</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G47">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H47">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I47">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J47">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K47">
+        <is>
+          <t xml:space="preserve">HE NEED BLACK CLOSED BANGALA, OUR COLLECTION IS FADED HE DIDNT LIKED</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="65">
+        <v>46</v>
+      </c>
+      <c t="inlineStr" r="B48">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C48">
+        <is>
+          <t xml:space="preserve">zayid</t>
+        </is>
+      </c>
+      <c r="D48" s="65">
+        <v>9048700478</v>
+      </c>
+      <c t="inlineStr" r="E48">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F48">
+        <is>
+          <t xml:space="preserve">SHYAMNADH T J</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G48">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H48">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I48">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J48">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K48">
+        <is>
+          <t xml:space="preserve">white pink stone indowestern (chavakkad store have)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="65">
+        <v>47</v>
+      </c>
+      <c t="inlineStr" r="B49">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C49">
+        <is>
+          <t xml:space="preserve">suhil</t>
+        </is>
+      </c>
+      <c r="D49" s="65">
+        <v>9633822524</v>
+      </c>
+      <c t="inlineStr" r="E49">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F49">
+        <is>
+          <t xml:space="preserve">RASEEB E A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G49">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H49">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I49">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J49">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K49">
+        <is>
+          <t xml:space="preserve">double button vintage model not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="65">
+        <v>48</v>
+      </c>
+      <c t="inlineStr" r="B50">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C50">
+        <is>
+          <t xml:space="preserve">NOUFAL</t>
+        </is>
+      </c>
+      <c r="D50" s="65">
+        <v>9995529334</v>
+      </c>
+      <c t="inlineStr" r="E50">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F50">
+        <is>
+          <t xml:space="preserve">SHYAMNADH T J</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G50">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H50">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I50">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J50">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K50">
+        <is>
+          <t xml:space="preserve">THEY LIKED IW PAKISTANI HE WILL COME WITH ANOTHER MEMBERS</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="65">
+        <v>49</v>
+      </c>
+      <c t="inlineStr" r="B51">
+        <is>
+          <t xml:space="preserve">18-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C51">
+        <is>
+          <t xml:space="preserve">Shivaprasad</t>
+        </is>
+      </c>
+      <c r="D51" s="65">
+        <v>9072470433</v>
+      </c>
+      <c t="inlineStr" r="E51">
+        <is>
+          <t xml:space="preserve">04-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F51">
+        <is>
+          <t xml:space="preserve">SHYAMNADH T J</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G51">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H51">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I51">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J51">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K51">
+        <is>
+          <t xml:space="preserve">THEY VISITED FOR LADIES OUTFITS</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="65">
+        <v>50</v>
+      </c>
+      <c t="inlineStr" r="B52">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C52">
+        <is>
+          <t xml:space="preserve">shibil</t>
+        </is>
+      </c>
+      <c r="D52" s="65">
+        <v>8129845383</v>
+      </c>
+      <c t="inlineStr" r="E52">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F52">
+        <is>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G52">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H52">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I52">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J52">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K52">
+        <is>
+          <t xml:space="preserve">will update later</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="65">
+        <v>51</v>
+      </c>
+      <c t="inlineStr" r="B53">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C53">
+        <is>
+          <t xml:space="preserve">abinav</t>
+        </is>
+      </c>
+      <c r="D53" s="65">
+        <v>9746154738</v>
+      </c>
+      <c t="inlineStr" r="E53">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F53">
+        <is>
+          <t xml:space="preserve">RASEEB E A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G53">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H53">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I53">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J53">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K53">
+        <is>
+          <t xml:space="preserve">NEED WAREHOUSE KURTHAS, THEY WILL UPDATE</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="65">
+        <v>52</v>
+      </c>
+      <c t="inlineStr" r="B54">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C54">
+        <is>
+          <t xml:space="preserve">DERIN</t>
+        </is>
+      </c>
+      <c r="D54" s="65">
+        <v>8086528183</v>
+      </c>
+      <c t="inlineStr" r="E54">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F54">
+        <is>
+          <t xml:space="preserve">RASEEB E A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G54">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H54">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I54">
+        <is>
+          <t xml:space="preserve">Product Already Booked</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J54">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K54">
+        <is>
+          <t xml:space="preserve">BLACK BANGALA NEW ARRIVAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="65">
+        <v>53</v>
+      </c>
+      <c t="inlineStr" r="B55">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C55">
+        <is>
+          <t xml:space="preserve">BIJOY</t>
+        </is>
+      </c>
+      <c r="D55" s="65">
+        <v>9029757243</v>
+      </c>
+      <c t="inlineStr" r="E55">
+        <is>
+          <t xml:space="preserve">08-02-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F55">
+        <is>
+          <t xml:space="preserve">RASEEB E A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G55">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H55">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I55">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J55">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K55">
+        <is>
+          <t xml:space="preserve">FUNCTION DATE IS FEB, JUST VISIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="65">
+        <v>54</v>
+      </c>
+      <c t="inlineStr" r="B56">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C56">
+        <is>
+          <t xml:space="preserve">UBAID</t>
+        </is>
+      </c>
+      <c r="D56" s="65">
+        <v>9544921043</v>
+      </c>
+      <c t="inlineStr" r="E56">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F56">
+        <is>
+          <t xml:space="preserve">RASEEB E A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G56">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H56">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I56">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J56">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K56">
+        <is>
+          <t xml:space="preserve">NEED HEAVY WORK WHITE INDOWESTERN, ALREADY VISITED CHAVAKKAD STORE.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="65">
+        <v>55</v>
+      </c>
+      <c t="inlineStr" r="B57">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C57">
+        <is>
+          <t xml:space="preserve">nimzer</t>
+        </is>
+      </c>
+      <c r="D57" s="65">
+        <v>7736699417</v>
+      </c>
+      <c t="inlineStr" r="E57">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F57">
+        <is>
+          <t xml:space="preserve">RAYAN K B</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G57">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H57">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I57">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J57">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K57">
+        <is>
+          <t xml:space="preserve">44 size not available in store</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="65">
+        <v>56</v>
+      </c>
+      <c t="inlineStr" r="B58">
+        <is>
+          <t xml:space="preserve">19-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C58">
+        <is>
+          <t xml:space="preserve">jelvin</t>
+        </is>
+      </c>
+      <c r="D58" s="65">
+        <v>9947425461</v>
+      </c>
+      <c t="inlineStr" r="E58">
+        <is>
+          <t xml:space="preserve">17-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F58">
+        <is>
+          <t xml:space="preserve">RAYAN K B</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G58">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H58">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I58">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J58">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K58">
+        <is>
+          <t xml:space="preserve">NEED PLAIN BLACK SUIT ON ARMANI MATERIAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="65">
+        <v>57</v>
+      </c>
+      <c t="inlineStr" r="B59">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C59">
+        <is>
+          <t xml:space="preserve">Amal</t>
+        </is>
+      </c>
+      <c r="D59" s="65">
+        <v>8289940405</v>
+      </c>
+      <c t="inlineStr" r="E59">
+        <is>
+          <t xml:space="preserve">26-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F59">
+        <is>
+          <t xml:space="preserve">RAYAN K B</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G59">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H59">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I59">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J59">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K59">
+        <is>
+          <t xml:space="preserve">Need bulk quantity in suit &amp; Kurtha will update before jan 10th</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="65">
+        <v>58</v>
+      </c>
+      <c t="inlineStr" r="B60">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C60">
+        <is>
+          <t xml:space="preserve">FAISAL</t>
+        </is>
+      </c>
+      <c r="D60" s="65">
+        <v>80892999</v>
+      </c>
+      <c t="inlineStr" r="E60">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F60">
+        <is>
+          <t xml:space="preserve">SHYAMNADH T J</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G60">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H60">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I60">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J60">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K60">
+        <is>
+          <t xml:space="preserve">heavy work black suit .</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="65">
+        <v>59</v>
+      </c>
+      <c t="inlineStr" r="B61">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C61">
+        <is>
+          <t xml:space="preserve">jinsad</t>
+        </is>
+      </c>
+      <c r="D61" s="65">
+        <v>8129332624</v>
+      </c>
+      <c t="inlineStr" r="E61">
+        <is>
+          <t xml:space="preserve">31-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F61">
+        <is>
+          <t xml:space="preserve">RASEEB E A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G61">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H61">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I61">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J61">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K61">
+        <is>
+          <t xml:space="preserve">FUNCTION IS ON JANUARY LAST THEY JUST VISITED OUR STORE.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="65">
+        <v>60</v>
+      </c>
+      <c t="inlineStr" r="B62">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C62">
+        <is>
+          <t xml:space="preserve">ajmal</t>
+        </is>
+      </c>
+      <c r="D62" s="65">
+        <v>7994156707</v>
+      </c>
+      <c t="inlineStr" r="E62">
+        <is>
+          <t xml:space="preserve">17-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F62">
+        <is>
+          <t xml:space="preserve">RAYAN K B</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G62">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H62">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I62">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J62">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K62">
+        <is>
+          <t xml:space="preserve">HE NEED HEAVY STONE WORK WHITE INDOWESTERN</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="65">
+        <v>61</v>
+      </c>
+      <c t="inlineStr" r="B63">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C63">
+        <is>
+          <t xml:space="preserve">unni Prakash</t>
+        </is>
+      </c>
+      <c r="D63" s="65">
+        <v>9539511611</v>
+      </c>
+      <c t="inlineStr" r="E63">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F63">
+        <is>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G63">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H63">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I63">
+        <is>
+          <t xml:space="preserve">Product Already Booked</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J63">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K63">
+        <is>
+          <t xml:space="preserve">They liked the product but size not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="65">
+        <v>62</v>
+      </c>
+      <c t="inlineStr" r="B64">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C64">
+        <is>
+          <t xml:space="preserve">Aneesh</t>
+        </is>
+      </c>
+      <c r="D64" s="65">
+        <v>9495288713</v>
+      </c>
+      <c t="inlineStr" r="E64">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F64">
+        <is>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G64">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H64">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I64">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J64">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K64">
+        <is>
+          <t xml:space="preserve">product not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="65">
+        <v>63</v>
+      </c>
+      <c t="inlineStr" r="B65">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C65">
+        <is>
+          <t xml:space="preserve">anglin</t>
+        </is>
+      </c>
+      <c r="D65" s="65">
+        <v>8281768766</v>
+      </c>
+      <c t="inlineStr" r="E65">
+        <is>
+          <t xml:space="preserve">08-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F65">
+        <is>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G65">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H65">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I65">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J65">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K65">
+        <is>
+          <t xml:space="preserve">GRAPE WINE BG NEEDED, STONE WORK</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="65">
+        <v>64</v>
+      </c>
+      <c t="inlineStr" r="B66">
+        <is>
+          <t xml:space="preserve">20-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C66">
+        <is>
+          <t xml:space="preserve">MOINU</t>
+        </is>
+      </c>
+      <c r="D66" s="65">
+        <v>9656921747</v>
+      </c>
+      <c t="inlineStr" r="E66">
+        <is>
+          <t xml:space="preserve">03-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F66">
+        <is>
+          <t xml:space="preserve">SHYAMNADH T J</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G66">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H66">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I66">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J66">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K66">
+        <is>
+          <t xml:space="preserve">visit tomorrow</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="65">
+        <v>65</v>
+      </c>
+      <c t="inlineStr" r="B67">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C67">
+        <is>
+          <t xml:space="preserve">JOSHUA</t>
+        </is>
+      </c>
+      <c r="D67" s="65">
+        <v>8547231307</v>
+      </c>
+      <c t="inlineStr" r="E67">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F67">
+        <is>
+          <t xml:space="preserve">RASEEB E A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G67">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H67">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I67">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J67">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K67">
+        <is>
+          <t xml:space="preserve">JUST VISIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="65">
+        <v>66</v>
+      </c>
+      <c t="inlineStr" r="B68">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C68">
+        <is>
+          <t xml:space="preserve">MAHAROOF</t>
+        </is>
+      </c>
+      <c r="D68" s="65">
+        <v>8086284361</v>
+      </c>
+      <c t="inlineStr" r="E68">
+        <is>
+          <t xml:space="preserve">11-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F68">
+        <is>
+          <t xml:space="preserve">RASEEB E A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G68">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H68">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I68">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J68">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K68">
+        <is>
+          <t xml:space="preserve">PRODUCT ALLREADY BOOKED (BLACK PREMIUM ONE SIDE SUIT SIZE 34)</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="65">
+        <v>67</v>
+      </c>
+      <c t="inlineStr" r="B69">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C69">
+        <is>
+          <t xml:space="preserve">aslam</t>
+        </is>
+      </c>
+      <c r="D69" s="65">
+        <v>9495358541</v>
+      </c>
+      <c t="inlineStr" r="E69">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F69">
+        <is>
+          <t xml:space="preserve">RAYAN K B</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G69">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H69">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I69">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J69">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K69">
+        <is>
+          <t xml:space="preserve">dapper squad kurtha (colour not available )</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="65">
+        <v>68</v>
+      </c>
+      <c t="inlineStr" r="B70">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C70">
+        <is>
+          <t xml:space="preserve">ashik</t>
+        </is>
+      </c>
+      <c r="D70" s="65">
+        <v>7510404041</v>
+      </c>
+      <c t="inlineStr" r="E70">
+        <is>
+          <t xml:space="preserve">04-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F70">
+        <is>
+          <t xml:space="preserve">RAYAN K B</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G70">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H70">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I70">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J70">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K70">
+        <is>
+          <t xml:space="preserve">dapper squad kurtha ( model not available )</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="65">
+        <v>69</v>
+      </c>
+      <c t="inlineStr" r="B71">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C71">
+        <is>
+          <t xml:space="preserve">vikraman</t>
+        </is>
+      </c>
+      <c r="D71" s="65">
+        <v>9745855156</v>
+      </c>
+      <c t="inlineStr" r="E71">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F71">
+        <is>
+          <t xml:space="preserve">RASEEB E A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G71">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H71">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I71">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J71">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K71">
+        <is>
+          <t xml:space="preserve">just visit for enquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="65">
+        <v>70</v>
+      </c>
+      <c t="inlineStr" r="B72">
+        <is>
+          <t xml:space="preserve">21-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C72">
+        <is>
+          <t xml:space="preserve">Sudhav</t>
+        </is>
+      </c>
+      <c r="D72" s="65">
+        <v>9962261369</v>
+      </c>
+      <c t="inlineStr" r="E72">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F72">
+        <is>
+          <t xml:space="preserve">RAYAN K B</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G72">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H72">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I72">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J72">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K72">
+        <is>
+          <t xml:space="preserve">need burgundy color indo western in 44 size</t>
         </is>
       </c>
     </row>

--- a/data/lossofsale_sg_thrissur.xlsx
+++ b/data/lossofsale_sg_thrissur.xlsx
@@ -206,7 +206,7 @@
     <col min="3" max="3" width="17.55" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="17.55" customWidth="1"/>
-    <col min="6" max="6" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="22.950000000000003" customWidth="1"/>
     <col min="7" max="7" width="8.100000000000001" customWidth="1"/>
     <col min="8" max="8" width="32.400000000000006" customWidth="1"/>
     <col min="9" max="9" width="39.150000000000006" customWidth="1"/>
@@ -3988,6 +3988,1437 @@
         </is>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" s="65">
+        <v>71</v>
+      </c>
+      <c t="inlineStr" r="B73">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C73">
+        <is>
+          <t xml:space="preserve">Abishek</t>
+        </is>
+      </c>
+      <c r="D73" s="65">
+        <v>9847281864</v>
+      </c>
+      <c t="inlineStr" r="E73">
+        <is>
+          <t xml:space="preserve">12-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F73">
+        <is>
+          <t xml:space="preserve">RAYAN K B</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G73">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H73">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I73">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J73">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K73">
+        <is>
+          <t xml:space="preserve">PRODUCT ALLREADY BOOKED</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="65">
+        <v>72</v>
+      </c>
+      <c t="inlineStr" r="B74">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C74">
+        <is>
+          <t xml:space="preserve">Himal</t>
+        </is>
+      </c>
+      <c r="D74" s="65">
+        <v>8547870989</v>
+      </c>
+      <c t="inlineStr" r="E74">
+        <is>
+          <t xml:space="preserve">26-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F74">
+        <is>
+          <t xml:space="preserve">RAYAN K B</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G74">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H74">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I74">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J74">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K74">
+        <is>
+          <t xml:space="preserve">REQUIRED MODEL ALLREADY  BOOKED</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="65">
+        <v>73</v>
+      </c>
+      <c t="inlineStr" r="B75">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C75">
+        <is>
+          <t xml:space="preserve">SHAJU</t>
+        </is>
+      </c>
+      <c r="D75" s="65">
+        <v>8891597962</v>
+      </c>
+      <c t="inlineStr" r="E75">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F75">
+        <is>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G75">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H75">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I75">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J75">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K75">
+        <is>
+          <t xml:space="preserve">HE FIRST VISITED OUR OUTLET HE NEEDS TO VISIT OTHER SUIT STORES AND HE WILL CONFIRM TOMORROW MORNING.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="65">
+        <v>74</v>
+      </c>
+      <c t="inlineStr" r="B76">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C76">
+        <is>
+          <t xml:space="preserve">AKHIN</t>
+        </is>
+      </c>
+      <c r="D76" s="65">
+        <v>9567228804</v>
+      </c>
+      <c t="inlineStr" r="E76">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F76">
+        <is>
+          <t xml:space="preserve">RASEEB E A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G76">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H76">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I76">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J76">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K76">
+        <is>
+          <t xml:space="preserve">OPEN BANGALA BLACK NOT AVAILABLE FOR HIS DATE.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="65">
+        <v>75</v>
+      </c>
+      <c t="inlineStr" r="B77">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C77">
+        <is>
+          <t xml:space="preserve">EMANUAL</t>
+        </is>
+      </c>
+      <c r="D77" s="65">
+        <v>9778258992</v>
+      </c>
+      <c t="inlineStr" r="E77">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F77">
+        <is>
+          <t xml:space="preserve">RASEEB E A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G77">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H77">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I77">
+        <is>
+          <t xml:space="preserve">SIZE TOO SMALL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J77">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K77">
+        <is>
+          <t xml:space="preserve">HE NEED 32 SIZE BLAZER</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="65">
+        <v>76</v>
+      </c>
+      <c t="inlineStr" r="B78">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C78">
+        <is>
+          <t xml:space="preserve">shahabas</t>
+        </is>
+      </c>
+      <c r="D78" s="65">
+        <v>9037427363</v>
+      </c>
+      <c t="inlineStr" r="E78">
+        <is>
+          <t xml:space="preserve">24-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F78">
+        <is>
+          <t xml:space="preserve">RASEEB E A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G78">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H78">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I78">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J78">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K78">
+        <is>
+          <t xml:space="preserve">JUST VISIT ENQUIRY FOR FRIEND</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="65">
+        <v>77</v>
+      </c>
+      <c t="inlineStr" r="B79">
+        <is>
+          <t xml:space="preserve">22-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C79">
+        <is>
+          <t xml:space="preserve">Shamsil</t>
+        </is>
+      </c>
+      <c r="D79" s="65">
+        <v>9946536516</v>
+      </c>
+      <c t="inlineStr" r="E79">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F79">
+        <is>
+          <t xml:space="preserve">RAYAN K B</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G79">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H79">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I79">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J79">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K79">
+        <is>
+          <t xml:space="preserve">PRUDUCT ALLREADY BOOKED</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="65">
+        <v>78</v>
+      </c>
+      <c t="inlineStr" r="B80">
+        <is>
+          <t xml:space="preserve">23-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C80">
+        <is>
+          <t xml:space="preserve">rinto</t>
+        </is>
+      </c>
+      <c r="D80" s="65">
+        <v>8921817705</v>
+      </c>
+      <c t="inlineStr" r="E80">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F80">
+        <is>
+          <t xml:space="preserve">RAYAN K B</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G80">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H80">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I80">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J80">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K80">
+        <is>
+          <t xml:space="preserve">UPDATE WITH IN 4 DAYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="65">
+        <v>79</v>
+      </c>
+      <c t="inlineStr" r="B81">
+        <is>
+          <t xml:space="preserve">23-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C81">
+        <is>
+          <t xml:space="preserve">Arun</t>
+        </is>
+      </c>
+      <c r="D81" s="65">
+        <v>8129536664</v>
+      </c>
+      <c t="inlineStr" r="E81">
+        <is>
+          <t xml:space="preserve">17-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F81">
+        <is>
+          <t xml:space="preserve">RAYAN K B</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G81">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H81">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I81">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J81">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K81">
+        <is>
+          <t xml:space="preserve">They liked the product and customer will come tomorrow with bride and family</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="65">
+        <v>80</v>
+      </c>
+      <c t="inlineStr" r="B82">
+        <is>
+          <t xml:space="preserve">23-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C82">
+        <is>
+          <t xml:space="preserve">NIHAS</t>
+        </is>
+      </c>
+      <c r="D82" s="65">
+        <v>9995974196</v>
+      </c>
+      <c t="inlineStr" r="E82">
+        <is>
+          <t xml:space="preserve">04-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F82">
+        <is>
+          <t xml:space="preserve">SHYAMNADH T J</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G82">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H82">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I82">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J82">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K82">
+        <is>
+          <t xml:space="preserve">N/J cream 40,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="65">
+        <v>81</v>
+      </c>
+      <c t="inlineStr" r="B83">
+        <is>
+          <t xml:space="preserve">23-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C83">
+        <is>
+          <t xml:space="preserve">lince</t>
+        </is>
+      </c>
+      <c r="D83" s="65">
+        <v>9074571235</v>
+      </c>
+      <c t="inlineStr" r="E83">
+        <is>
+          <t xml:space="preserve">23-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F83">
+        <is>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G83">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H83">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I83">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J83">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K83">
+        <is>
+          <t xml:space="preserve">customer liked the product and customer will visit with family and book later</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="65">
+        <v>82</v>
+      </c>
+      <c t="inlineStr" r="B84">
+        <is>
+          <t xml:space="preserve">23-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C84">
+        <is>
+          <t xml:space="preserve">Bibin</t>
+        </is>
+      </c>
+      <c r="D84" s="65">
+        <v>9497326932</v>
+      </c>
+      <c t="inlineStr" r="E84">
+        <is>
+          <t xml:space="preserve">27-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F84">
+        <is>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G84">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H84">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I84">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J84">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K84">
+        <is>
+          <t xml:space="preserve">come tomorrow</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="65">
+        <v>83</v>
+      </c>
+      <c t="inlineStr" r="B85">
+        <is>
+          <t xml:space="preserve">23-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C85">
+        <is>
+          <t xml:space="preserve">Akshay</t>
+        </is>
+      </c>
+      <c r="D85" s="65">
+        <v>9048577745</v>
+      </c>
+      <c t="inlineStr" r="E85">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F85">
+        <is>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G85">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H85">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I85">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J85">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K85">
+        <is>
+          <t xml:space="preserve">visit tomorrow</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="65">
+        <v>84</v>
+      </c>
+      <c t="inlineStr" r="B86">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C86">
+        <is>
+          <t xml:space="preserve">JOWIN</t>
+        </is>
+      </c>
+      <c r="D86" s="65">
+        <v>7907473358</v>
+      </c>
+      <c t="inlineStr" r="E86">
+        <is>
+          <t xml:space="preserve">31-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F86">
+        <is>
+          <t xml:space="preserve">SHYAMNADH T J</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G86">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H86">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I86">
+        <is>
+          <t xml:space="preserve">PRODUCT NOT AVAILABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J86">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K86">
+        <is>
+          <t xml:space="preserve">LAVENDER COLOUR SIUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="65">
+        <v>85</v>
+      </c>
+      <c t="inlineStr" r="B87">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C87">
+        <is>
+          <t xml:space="preserve">LEO</t>
+        </is>
+      </c>
+      <c r="D87" s="65">
+        <v>8714441119</v>
+      </c>
+      <c t="inlineStr" r="E87">
+        <is>
+          <t xml:space="preserve">04-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F87">
+        <is>
+          <t xml:space="preserve">SHYAMNADH T J</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G87">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H87">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I87">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J87">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K87">
+        <is>
+          <t xml:space="preserve">HE NEED TO DISCUSS WITH HIS BRIDE</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="65">
+        <v>86</v>
+      </c>
+      <c t="inlineStr" r="B88">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C88">
+        <is>
+          <t xml:space="preserve">surave</t>
+        </is>
+      </c>
+      <c r="D88" s="65">
+        <v>9048983957</v>
+      </c>
+      <c t="inlineStr" r="E88">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F88">
+        <is>
+          <t xml:space="preserve">RASEEB E A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G88">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H88">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I88">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J88">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K88">
+        <is>
+          <t xml:space="preserve">enquiry Just visit</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="65">
+        <v>87</v>
+      </c>
+      <c t="inlineStr" r="B89">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C89">
+        <is>
+          <t xml:space="preserve">ben</t>
+        </is>
+      </c>
+      <c r="D89" s="65">
+        <v>8594035331</v>
+      </c>
+      <c t="inlineStr" r="E89">
+        <is>
+          <t xml:space="preserve">07-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F89">
+        <is>
+          <t xml:space="preserve">RASEEB E A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G89">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H89">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I89">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J89">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K89">
+        <is>
+          <t xml:space="preserve">jest visit</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="65">
+        <v>88</v>
+      </c>
+      <c t="inlineStr" r="B90">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C90">
+        <is>
+          <t xml:space="preserve">BINU</t>
+        </is>
+      </c>
+      <c r="D90" s="65">
+        <v>9446278195</v>
+      </c>
+      <c t="inlineStr" r="E90">
+        <is>
+          <t xml:space="preserve">04-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F90">
+        <is>
+          <t xml:space="preserve">MUHAMMED JASIR. V</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G90">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H90">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I90">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J90">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K90">
+        <is>
+          <t xml:space="preserve">HE COMES WITH FAMILY TRAILED BLACK TEXTURE 40 SIZE BLAZER AND LEAVE.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="65">
+        <v>89</v>
+      </c>
+      <c t="inlineStr" r="B91">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C91">
+        <is>
+          <t xml:space="preserve">Alfred</t>
+        </is>
+      </c>
+      <c r="D91" s="65">
+        <v>9656573522</v>
+      </c>
+      <c t="inlineStr" r="E91">
+        <is>
+          <t xml:space="preserve">07-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F91">
+        <is>
+          <t xml:space="preserve">RAYAN K B</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G91">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H91">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I91">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT BRIDE/FAMILY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J91">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K91">
+        <is>
+          <t xml:space="preserve">HE NEEDS TO DISCUSS WITH FAMILY</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="65">
+        <v>90</v>
+      </c>
+      <c t="inlineStr" r="B92">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C92">
+        <is>
+          <t xml:space="preserve">JOHN</t>
+        </is>
+      </c>
+      <c r="D92" s="65">
+        <v>7736692808</v>
+      </c>
+      <c t="inlineStr" r="E92">
+        <is>
+          <t xml:space="preserve">03-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F92">
+        <is>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G92">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H92">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I92">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J92">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K92">
+        <is>
+          <t xml:space="preserve">JUST VISIT FOR LOOKING RENTAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="65">
+        <v>91</v>
+      </c>
+      <c t="inlineStr" r="B93">
+        <is>
+          <t xml:space="preserve">24-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C93">
+        <is>
+          <t xml:space="preserve">Gowtham</t>
+        </is>
+      </c>
+      <c r="D93" s="65">
+        <v>8943210145</v>
+      </c>
+      <c t="inlineStr" r="E93">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F93">
+        <is>
+          <t xml:space="preserve">RASEEB E A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G93">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H93">
+        <is>
+          <t xml:space="preserve">SIZE NOT SUITABLE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I93">
+        <is>
+          <t xml:space="preserve">SIZE TOO LARGE</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J93">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K93">
+        <is>
+          <t xml:space="preserve">46 SIZE KURTHA NEEDED</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="65">
+        <v>92</v>
+      </c>
+      <c t="inlineStr" r="B94">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C94">
+        <is>
+          <t xml:space="preserve">sidheek</t>
+        </is>
+      </c>
+      <c r="D94" s="65">
+        <v>8129199845</v>
+      </c>
+      <c t="inlineStr" r="E94">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F94">
+        <is>
+          <t xml:space="preserve">RASEEB E A</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G94">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H94">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I94">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J94">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K94">
+        <is>
+          <t xml:space="preserve">just visit</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="65">
+        <v>93</v>
+      </c>
+      <c t="inlineStr" r="B95">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C95">
+        <is>
+          <t xml:space="preserve">Suman</t>
+        </is>
+      </c>
+      <c r="D95" s="65">
+        <v>9567059770</v>
+      </c>
+      <c t="inlineStr" r="E95">
+        <is>
+          <t xml:space="preserve">28-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F95">
+        <is>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G95">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H95">
+        <is>
+          <t xml:space="preserve">PRODUCT</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I95">
+        <is>
+          <t xml:space="preserve">Product Already Booked</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J95">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K95">
+        <is>
+          <t xml:space="preserve">product not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="65">
+        <v>94</v>
+      </c>
+      <c t="inlineStr" r="B96">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C96">
+        <is>
+          <t xml:space="preserve">jesleo</t>
+        </is>
+      </c>
+      <c r="D96" s="65">
+        <v>9496751850</v>
+      </c>
+      <c t="inlineStr" r="E96">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F96">
+        <is>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G96">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H96">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I96">
+        <is>
+          <t xml:space="preserve">FAMILY DISAPPROVEL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J96">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K96">
+        <is>
+          <t xml:space="preserve">update later</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="65">
+        <v>95</v>
+      </c>
+      <c t="inlineStr" r="B97">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C97">
+        <is>
+          <t xml:space="preserve">Munas</t>
+        </is>
+      </c>
+      <c r="D97" s="65">
+        <v>9645906666</v>
+      </c>
+      <c t="inlineStr" r="E97">
+        <is>
+          <t xml:space="preserve">29-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F97">
+        <is>
+          <t xml:space="preserve">RAYAN K B</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G97">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H97">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I97">
+        <is>
+          <t xml:space="preserve">Enquiry for Relative/Friend</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J97">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K97">
+        <is>
+          <t xml:space="preserve">HE WILL COME WITH HIS COUSINS TOMORROW OR NEXT DAY.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="65">
+        <v>96</v>
+      </c>
+      <c t="inlineStr" r="B98">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C98">
+        <is>
+          <t xml:space="preserve">haize</t>
+        </is>
+      </c>
+      <c r="D98" s="65">
+        <v>9995125150</v>
+      </c>
+      <c t="inlineStr" r="E98">
+        <is>
+          <t xml:space="preserve">15-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F98">
+        <is>
+          <t xml:space="preserve">ATHULKIRSHNA CS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G98">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H98">
+        <is>
+          <t xml:space="preserve">ENQUIRY</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I98">
+        <is>
+          <t xml:space="preserve">ENQUIRY WITHOUT TRIAL</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J98">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K98">
+        <is>
+          <t xml:space="preserve">just a enquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="65">
+        <v>97</v>
+      </c>
+      <c t="inlineStr" r="B99">
+        <is>
+          <t xml:space="preserve">25-12-2025</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C99">
+        <is>
+          <t xml:space="preserve">AASIL</t>
+        </is>
+      </c>
+      <c r="D99" s="65">
+        <v>9947535233</v>
+      </c>
+      <c t="inlineStr" r="E99">
+        <is>
+          <t xml:space="preserve">11-01-2026</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="F99">
+        <is>
+          <t xml:space="preserve">SHYAMNADH T J</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G99">
+        <is>
+          <t xml:space="preserve">Loss</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H99">
+        <is>
+          <t xml:space="preserve">CUSTOMER INTERNAL ISSUES</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I99">
+        <is>
+          <t xml:space="preserve">BUDGET RESTRICTIONS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J99">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K99">
+        <is>
+          <t xml:space="preserve">THEY CHOOSED TOTAL OF 9 QTY VALUE ALMOST 35K AND THEY NEED ADDITIONAL 7 PRODUCTS IT ALMOST HITS 65-70K RANGE BUT THE GROOM IS THE SPONSER HIS BUDGET IS MAXIMUM 40K RANGE.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
